--- a/JieLongMod_6/Excel/D地图插件.xlsx
+++ b/JieLongMod_6/Excel/D地图插件.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,6 +83,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>随便观</t>
     </r>
     <r>
@@ -97,10 +104,17 @@
     </r>
   </si>
   <si>
-    <t>suibianguan</t>
+    <t>随便观</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>随便观</t>
     </r>
     <r>
@@ -116,6 +130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>随便观</t>
     </r>
     <r>
@@ -131,6 +152,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>随便观</t>
     </r>
     <r>
@@ -146,6 +174,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>随便观</t>
     </r>
     <r>
@@ -161,6 +196,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>随便观</t>
     </r>
     <r>
@@ -176,6 +218,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>随便观</t>
     </r>
     <r>
@@ -200,10 +249,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -365,7 +421,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +431,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,55 +762,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,74 +822,77 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +903,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1197,15 +1262,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="24.125" customWidth="1"/>
-    <col min="2" max="2" width="27.775" customWidth="1"/>
+    <col min="1" max="1" width="24.1272727272727" customWidth="1"/>
+    <col min="2" max="2" width="27.7727272727273" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="30.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="30.3363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -1226,7 +1291,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1237,7 +1302,7 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1248,7 +1313,7 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1259,7 +1324,7 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1270,7 +1335,7 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1281,7 +1346,7 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1292,7 +1357,7 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1301,8 +1366,8 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:3">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3"/>
@@ -1350,7 +1415,7 @@
       <c r="C18" s="3"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D19" etc:filterBottomFollowUsedRange="0">
+  <autoFilter ref="A1:D19">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,7 +1434,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1386,7 +1451,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
